--- a/src/test/resources/TestScriptData/TestExcel.xlsx
+++ b/src/test/resources/TestScriptData/TestExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Leads" sheetId="1" state="visible" r:id="rId2"/>
@@ -264,7 +264,7 @@
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -301,12 +301,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -392,7 +386,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -450,10 +444,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -484,8 +474,8 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -901,8 +891,8 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1159,10 +1149,10 @@
       <c r="F15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>61</v>
       </c>
       <c r="I15" s="12" t="s">
@@ -1230,13 +1220,13 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1244,13 +1234,13 @@
       <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="17" t="n">
+      <c r="D3" s="16" t="n">
         <v>7896471200</v>
       </c>
     </row>
@@ -1261,13 +1251,13 @@
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1287,13 +1277,13 @@
       <c r="A6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="17" t="n">
+      <c r="D6" s="16" t="n">
         <v>7899541236</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1325,13 +1315,13 @@
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1353,13 +1343,13 @@
       <c r="A9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="17" t="n">
+      <c r="D9" s="16" t="n">
         <v>9985741236</v>
       </c>
       <c r="E9" s="7" t="s">

--- a/src/test/resources/TestScriptData/TestExcel.xlsx
+++ b/src/test/resources/TestScriptData/TestExcel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="81">
   <si>
     <t xml:space="preserve">TestCase_ID</t>
   </si>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t xml:space="preserve">tekpyramid.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_Org_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QualiMe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.youtube.com/@Qualime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomOrg</t>
   </si>
 </sst>
 </file>
@@ -474,8 +486,8 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -892,7 +904,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1380,26 +1392,58 @@
       <c r="J10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
+      <c r="A12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <v>9985891236</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
     </row>
@@ -1498,6 +1542,9 @@
       <c r="J24" s="0"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1" display="www.youtube.com/@Qualime"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/test/resources/TestScriptData/TestExcel.xlsx
+++ b/src/test/resources/TestScriptData/TestExcel.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Leads" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Contacts" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Organizations" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Campaign" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -486,8 +487,8 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1553,4 +1554,27 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>